--- a/Datas/TbChapter.xlsx
+++ b/Datas/TbChapter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E93BD9-EB0E-4022-B74D-2DA836263D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B81E1-A86C-420B-AD9D-662865DD28B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
+    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -103,85 +103,85 @@
     <t>affect the building price</t>
   </si>
   <si>
+    <t>chapter2 story</t>
+  </si>
+  <si>
+    <t>chapter3 story</t>
+  </si>
+  <si>
+    <t>chapter4 story</t>
+  </si>
+  <si>
+    <t>chapter5 story</t>
+  </si>
+  <si>
+    <t>chapter6 story</t>
+  </si>
+  <si>
+    <t>ui://PackageMonopoly/land1</t>
+  </si>
+  <si>
+    <t>ui://PackageMonopoly/land2</t>
+  </si>
+  <si>
+    <t>ui://PackageMonopoly/land3</t>
+  </si>
+  <si>
+    <t>ui://PackageMonopoly/land4</t>
+  </si>
+  <si>
+    <t>ui://PackageMonopoly/land5</t>
+  </si>
+  <si>
+    <t>ui://PackageMonopoly/land6</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>upgrading price</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Baber Shop</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Car repair shop</t>
+  </si>
+  <si>
+    <t>Coffee shop</t>
+  </si>
+  <si>
+    <t>buildingList</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>isMax</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>chapter1 story</t>
-  </si>
-  <si>
-    <t>chapter2 story</t>
-  </si>
-  <si>
-    <t>chapter3 story</t>
-  </si>
-  <si>
-    <t>chapter4 story</t>
-  </si>
-  <si>
-    <t>chapter5 story</t>
-  </si>
-  <si>
-    <t>chapter6 story</t>
-  </si>
-  <si>
-    <t>ui://PackageMonopoly/land1</t>
-  </si>
-  <si>
-    <t>ui://PackageMonopoly/land2</t>
-  </si>
-  <si>
-    <t>ui://PackageMonopoly/land3</t>
-  </si>
-  <si>
-    <t>ui://PackageMonopoly/land4</t>
-  </si>
-  <si>
-    <t>ui://PackageMonopoly/land5</t>
-  </si>
-  <si>
-    <t>ui://PackageMonopoly/land6</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>upgrading price</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Baber Shop</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>Car repair shop</t>
-  </si>
-  <si>
-    <t>Coffee shop</t>
-  </si>
-  <si>
-    <t>buildingList</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>isMax</t>
-  </si>
-  <si>
-    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E17D38B-A54F-41E9-B080-C703B0A8CFE4}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -847,7 +847,7 @@
         <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -870,7 +870,7 @@
         <v>400</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,10 +881,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -893,7 +893,7 @@
         <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -904,10 +904,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -916,7 +916,7 @@
         <v>600</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FBF5EA-E9AD-45AF-9827-FA3C42236E21}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1057,13 +1057,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
@@ -1081,13 +1081,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1102,7 +1102,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>700</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>900</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>1100</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>1300</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>600</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>800</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>1000</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>1200</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1278,7 +1278,7 @@
         <v>1400</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>700</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -1328,7 +1328,7 @@
         <v>900</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1344,7 +1344,7 @@
         <v>1100</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -1360,7 +1360,7 @@
         <v>1300</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>1500</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>800</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -1427,7 +1427,7 @@
         <v>1000</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -1443,7 +1443,7 @@
         <v>1200</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -1459,7 +1459,7 @@
         <v>1400</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1600</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>950</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>1150</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>1550</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>1750</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/TbChapter.xlsx
+++ b/Datas/TbChapter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B81E1-A86C-420B-AD9D-662865DD28B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CCA3F-FF1A-40F7-B003-7921634ED2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
+    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13140" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>priceBase</t>
   </si>
   <si>
-    <t>add to building price</t>
-  </si>
-  <si>
     <t>affect the building price</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>chapter1 story</t>
+  </si>
+  <si>
+    <t>reward money amount</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,10 +775,10 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -847,7 +847,7 @@
         <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -870,7 +870,7 @@
         <v>400</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,10 +881,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -893,7 +893,7 @@
         <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -904,10 +904,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -916,7 +916,7 @@
         <v>600</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1057,13 +1057,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
@@ -1081,13 +1081,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1102,7 +1102,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>700</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>900</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>1100</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>1300</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>600</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>800</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>1000</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>1200</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1278,7 +1278,7 @@
         <v>1400</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>700</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -1328,7 +1328,7 @@
         <v>900</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1344,7 +1344,7 @@
         <v>1100</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -1360,7 +1360,7 @@
         <v>1300</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>1500</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>800</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -1427,7 +1427,7 @@
         <v>1000</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -1443,7 +1443,7 @@
         <v>1200</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -1459,7 +1459,7 @@
         <v>1400</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1600</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>950</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>1150</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>1550</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>1750</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/TbChapter.xlsx
+++ b/Datas/TbChapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CCA3F-FF1A-40F7-B003-7921634ED2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD33E10-0614-4FA5-9903-64FC15F8FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13140" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E17D38B-A54F-41E9-B080-C703B0A8CFE4}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FBF5EA-E9AD-45AF-9827-FA3C42236E21}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,9 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
@@ -1144,7 +1146,9 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
@@ -1159,7 +1163,9 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
@@ -1174,7 +1180,9 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
@@ -1189,7 +1197,9 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="3">
         <v>5</v>
       </c>
@@ -1224,7 +1234,9 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
@@ -1239,7 +1251,9 @@
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -1255,7 +1269,9 @@
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
@@ -1271,6 +1287,9 @@
       <c r="B14" s="3">
         <v>2</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
@@ -1285,6 +1304,9 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
@@ -1320,7 +1342,9 @@
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
@@ -1336,7 +1360,9 @@
       <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
@@ -1352,7 +1378,9 @@
       <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
@@ -1368,6 +1396,9 @@
       <c r="B20" s="3">
         <v>3</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
@@ -1383,6 +1414,9 @@
       <c r="B21" s="3">
         <v>3</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
@@ -1419,7 +1453,9 @@
       <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
@@ -1435,7 +1471,9 @@
       <c r="B24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
@@ -1451,7 +1489,9 @@
       <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
@@ -1467,6 +1507,9 @@
       <c r="B26" s="3">
         <v>4</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D26" s="3">
         <v>4</v>
       </c>
@@ -1482,6 +1525,9 @@
       <c r="B27" s="3">
         <v>4</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
@@ -1517,7 +1563,9 @@
       <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
@@ -1532,7 +1580,9 @@
       <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
@@ -1547,7 +1597,9 @@
       <c r="B31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
@@ -1562,6 +1614,9 @@
       <c r="B32" s="3">
         <v>5</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D32" s="3">
         <v>4</v>
       </c>
@@ -1575,6 +1630,9 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>

--- a/Datas/TbChapter.xlsx
+++ b/Datas/TbChapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\301410195\Desktop\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD33E10-0614-4FA5-9903-64FC15F8FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE8BCC-4046-4D68-BD9B-B8BF7AB490C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
+    <workbookView xWindow="5445" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{3F7ABEBE-9421-4B7A-86CD-CBD91F4B5AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -91,15 +89,6 @@
     <t>icon in chapter select</t>
   </si>
   <si>
-    <t>priceMultiplier</t>
-  </si>
-  <si>
-    <t>priceBase</t>
-  </si>
-  <si>
-    <t>affect the building price</t>
-  </si>
-  <si>
     <t>chapter2 story</t>
   </si>
   <si>
@@ -160,15 +149,6 @@
     <t>Coffee shop</t>
   </si>
   <si>
-    <t>buildingList</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -179,16 +159,13 @@
   </si>
   <si>
     <t>chapter1 story</t>
-  </si>
-  <si>
-    <t>reward money amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,47 +649,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E17D38B-A54F-41E9-B080-C703B0A8CFE4}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.25" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.25" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,17 +705,11 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -754,17 +725,10 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -774,224 +738,164 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="B5" s="3">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="3">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>300</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="3">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>400</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" s="3">
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" s="3">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>600</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="E11" s="4"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="E12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="E14" s="4"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="E15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="E16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="E17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="E18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="E20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="4"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="4"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="E23" s="4"/>
@@ -1007,46 +911,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FBF5EA-E9AD-45AF-9827-FA3C42236E21}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="C6:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.25" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,20 +961,20 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1081,20 +985,20 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,18 +1006,18 @@
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1122,15 +1026,15 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1139,15 +1043,15 @@
         <v>700</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -1156,15 +1060,15 @@
         <v>900</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
@@ -1173,15 +1077,15 @@
         <v>1100</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -1190,15 +1094,15 @@
         <v>1300</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -1210,15 +1114,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1227,15 +1131,15 @@
         <v>600</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1244,15 +1148,15 @@
         <v>800</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -1261,16 +1165,16 @@
         <v>1000</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -1279,16 +1183,16 @@
         <v>1200</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -1297,15 +1201,15 @@
         <v>1400</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -1317,15 +1221,15 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1334,16 +1238,16 @@
         <v>700</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1352,16 +1256,16 @@
         <v>900</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -1370,16 +1274,16 @@
         <v>1100</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -1388,16 +1292,16 @@
         <v>1300</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
@@ -1406,16 +1310,16 @@
         <v>1500</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="3">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
@@ -1427,16 +1331,16 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1445,16 +1349,16 @@
         <v>800</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1463,16 +1367,16 @@
         <v>1000</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
@@ -1481,16 +1385,16 @@
         <v>1200</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -1499,16 +1403,16 @@
         <v>1400</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
@@ -1517,16 +1421,16 @@
         <v>1600</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -1538,16 +1442,16 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1556,15 +1460,15 @@
         <v>950</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1573,15 +1477,15 @@
         <v>1150</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="3">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -1590,15 +1494,15 @@
         <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="3">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
@@ -1607,15 +1511,15 @@
         <v>1550</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
@@ -1624,15 +1528,15 @@
         <v>1750</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
@@ -1644,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
